--- a/Team-Data/2014-15/2-20-2014-15.xlsx
+++ b/Team-Data/2014-15/2-20-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,61 +733,61 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" t="n">
         <v>43</v>
       </c>
       <c r="F2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" t="n">
-        <v>0.782</v>
+        <v>0.796</v>
       </c>
       <c r="H2" t="n">
         <v>48.2</v>
       </c>
       <c r="I2" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="J2" t="n">
-        <v>80.90000000000001</v>
+        <v>80.7</v>
       </c>
       <c r="K2" t="n">
-        <v>0.468</v>
+        <v>0.471</v>
       </c>
       <c r="L2" t="n">
         <v>9.9</v>
       </c>
       <c r="M2" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0.385</v>
+        <v>0.389</v>
       </c>
       <c r="O2" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P2" t="n">
         <v>22.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.774</v>
+        <v>0.775</v>
       </c>
       <c r="R2" t="n">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S2" t="n">
         <v>32.6</v>
       </c>
       <c r="T2" t="n">
-        <v>41.1</v>
+        <v>40.9</v>
       </c>
       <c r="U2" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="V2" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="W2" t="n">
         <v>8.800000000000001</v>
@@ -732,19 +799,19 @@
         <v>4.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>103</v>
+        <v>103.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
@@ -759,22 +826,22 @@
         <v>25</v>
       </c>
       <c r="AI2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ2" t="n">
         <v>26</v>
       </c>
       <c r="AK2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL2" t="n">
         <v>4</v>
       </c>
       <c r="AM2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO2" t="n">
         <v>12</v>
@@ -783,7 +850,7 @@
         <v>17</v>
       </c>
       <c r="AQ2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR2" t="n">
         <v>30</v>
@@ -798,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW2" t="n">
         <v>6</v>
@@ -807,7 +874,7 @@
         <v>16</v>
       </c>
       <c r="AY2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ2" t="n">
         <v>1</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-20-2014-15</t>
+          <t>2015-02-20</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" t="n">
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" t="n">
-        <v>0.385</v>
+        <v>0.392</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
@@ -866,46 +933,46 @@
         <v>39.1</v>
       </c>
       <c r="J3" t="n">
-        <v>87.90000000000001</v>
+        <v>87.7</v>
       </c>
       <c r="K3" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L3" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M3" t="n">
         <v>23.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0.326</v>
+        <v>0.327</v>
       </c>
       <c r="O3" t="n">
         <v>15</v>
       </c>
       <c r="P3" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.75</v>
+        <v>0.755</v>
       </c>
       <c r="R3" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S3" t="n">
-        <v>32.7</v>
+        <v>32.9</v>
       </c>
       <c r="T3" t="n">
-        <v>43.7</v>
+        <v>43.8</v>
       </c>
       <c r="U3" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="V3" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W3" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X3" t="n">
         <v>3.9</v>
@@ -917,25 +984,25 @@
         <v>21.1</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="AB3" t="n">
         <v>100.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>-1.6</v>
+        <v>-1.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE3" t="n">
         <v>22</v>
       </c>
       <c r="AF3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG3" t="n">
         <v>20</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>22</v>
       </c>
       <c r="AH3" t="n">
         <v>14</v>
@@ -953,7 +1020,7 @@
         <v>13</v>
       </c>
       <c r="AM3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN3" t="n">
         <v>24</v>
@@ -965,34 +1032,34 @@
         <v>28</v>
       </c>
       <c r="AQ3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AR3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS3" t="n">
         <v>11</v>
       </c>
       <c r="AT3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU3" t="n">
         <v>5</v>
       </c>
       <c r="AV3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW3" t="n">
         <v>10</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AZ3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA3" t="n">
         <v>30</v>
@@ -1001,7 +1068,7 @@
         <v>12</v>
       </c>
       <c r="BC3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-20-2014-15</t>
+          <t>2015-02-20</t>
         </is>
       </c>
     </row>
@@ -1030,25 +1097,25 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" t="n">
         <v>31</v>
       </c>
       <c r="G4" t="n">
-        <v>0.415</v>
+        <v>0.404</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J4" t="n">
-        <v>81.40000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="K4" t="n">
         <v>0.447</v>
@@ -1060,16 +1127,16 @@
         <v>20.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.324</v>
+        <v>0.321</v>
       </c>
       <c r="O4" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="P4" t="n">
         <v>22</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.744</v>
+        <v>0.742</v>
       </c>
       <c r="R4" t="n">
         <v>9.9</v>
@@ -1078,13 +1145,13 @@
         <v>32</v>
       </c>
       <c r="T4" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U4" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V4" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W4" t="n">
         <v>7</v>
@@ -1102,16 +1169,16 @@
         <v>19.9</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.8</v>
+        <v>95.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3.8</v>
+        <v>-4</v>
       </c>
       <c r="AD4" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>19</v>
@@ -1144,10 +1211,10 @@
         <v>24</v>
       </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR4" t="n">
         <v>26</v>
@@ -1159,10 +1226,10 @@
         <v>23</v>
       </c>
       <c r="AU4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AV4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AW4" t="n">
         <v>24</v>
@@ -1180,7 +1247,7 @@
         <v>19</v>
       </c>
       <c r="BB4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC4" t="n">
         <v>24</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-20-2014-15</t>
+          <t>2015-02-20</t>
         </is>
       </c>
     </row>
@@ -1290,16 +1357,16 @@
         <v>-2.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
         <v>3</v>
@@ -1326,7 +1393,7 @@
         <v>14</v>
       </c>
       <c r="AP5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ5" t="n">
         <v>24</v>
@@ -1335,10 +1402,10 @@
         <v>23</v>
       </c>
       <c r="AS5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU5" t="n">
         <v>25</v>
@@ -1353,10 +1420,10 @@
         <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA5" t="n">
         <v>5</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-20-2014-15</t>
+          <t>2015-02-20</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" t="n">
         <v>34</v>
       </c>
       <c r="F6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" t="n">
-        <v>0.618</v>
+        <v>0.63</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
@@ -1412,7 +1479,7 @@
         <v>37</v>
       </c>
       <c r="J6" t="n">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="K6" t="n">
         <v>0.444</v>
@@ -1421,7 +1488,7 @@
         <v>7.7</v>
       </c>
       <c r="M6" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="N6" t="n">
         <v>0.359</v>
@@ -1430,28 +1497,28 @@
         <v>20.4</v>
       </c>
       <c r="P6" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.786</v>
+        <v>0.784</v>
       </c>
       <c r="R6" t="n">
         <v>12</v>
       </c>
       <c r="S6" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="T6" t="n">
-        <v>45.5</v>
+        <v>45.6</v>
       </c>
       <c r="U6" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V6" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W6" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="X6" t="n">
         <v>6.3</v>
@@ -1460,25 +1527,25 @@
         <v>5.4</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="AA6" t="n">
         <v>21.9</v>
       </c>
       <c r="AB6" t="n">
-        <v>102</v>
+        <v>102.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE6" t="n">
         <v>9</v>
       </c>
       <c r="AF6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG6" t="n">
         <v>9</v>
@@ -1490,7 +1557,7 @@
         <v>19</v>
       </c>
       <c r="AJ6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
         <v>19</v>
@@ -1502,7 +1569,7 @@
         <v>16</v>
       </c>
       <c r="AN6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO6" t="n">
         <v>2</v>
@@ -1511,10 +1578,10 @@
         <v>2</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS6" t="n">
         <v>8</v>
@@ -1523,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AV6" t="n">
         <v>11</v>
@@ -1538,13 +1605,13 @@
         <v>22</v>
       </c>
       <c r="AZ6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA6" t="n">
         <v>2</v>
       </c>
       <c r="BB6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-20-2014-15</t>
+          <t>2015-02-20</t>
         </is>
       </c>
     </row>
@@ -1576,37 +1643,37 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" t="n">
         <v>22</v>
       </c>
       <c r="G7" t="n">
-        <v>0.607</v>
+        <v>0.6</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
       </c>
       <c r="I7" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="J7" t="n">
-        <v>82.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L7" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="M7" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="N7" t="n">
-        <v>0.355</v>
+        <v>0.353</v>
       </c>
       <c r="O7" t="n">
         <v>18.3</v>
@@ -1621,13 +1688,13 @@
         <v>11.4</v>
       </c>
       <c r="S7" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="T7" t="n">
         <v>42.7</v>
       </c>
       <c r="U7" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V7" t="n">
         <v>13.9</v>
@@ -1639,34 +1706,34 @@
         <v>4.1</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z7" t="n">
         <v>18.3</v>
       </c>
       <c r="AA7" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AB7" t="n">
-        <v>102.6</v>
+        <v>102.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI7" t="n">
         <v>15</v>
@@ -1690,13 +1757,13 @@
         <v>8</v>
       </c>
       <c r="AP7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS7" t="n">
         <v>22</v>
@@ -1720,16 +1787,16 @@
         <v>13</v>
       </c>
       <c r="AZ7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA7" t="n">
         <v>8</v>
       </c>
       <c r="BB7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BC7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-20-2014-15</t>
+          <t>2015-02-20</t>
         </is>
       </c>
     </row>
@@ -1761,22 +1828,22 @@
         <v>56</v>
       </c>
       <c r="E8" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" t="n">
-        <v>0.661</v>
+        <v>0.643</v>
       </c>
       <c r="H8" t="n">
         <v>48.5</v>
       </c>
       <c r="I8" t="n">
-        <v>39.9</v>
+        <v>39.8</v>
       </c>
       <c r="J8" t="n">
-        <v>86.3</v>
+        <v>86</v>
       </c>
       <c r="K8" t="n">
         <v>0.463</v>
@@ -1785,7 +1852,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="M8" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="N8" t="n">
         <v>0.357</v>
@@ -1797,43 +1864,43 @@
         <v>22</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.757</v>
+        <v>0.758</v>
       </c>
       <c r="R8" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S8" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="T8" t="n">
-        <v>42.6</v>
+        <v>42.3</v>
       </c>
       <c r="U8" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="V8" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="W8" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X8" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Z8" t="n">
         <v>20</v>
       </c>
       <c r="AA8" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>106.2</v>
+        <v>106</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -1842,10 +1909,10 @@
         <v>4</v>
       </c>
       <c r="AF8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH8" t="n">
         <v>13</v>
@@ -1854,7 +1921,7 @@
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
@@ -1866,10 +1933,10 @@
         <v>4</v>
       </c>
       <c r="AN8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP8" t="n">
         <v>19</v>
@@ -1878,13 +1945,13 @@
         <v>14</v>
       </c>
       <c r="AR8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AT8" t="n">
         <v>20</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>19</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1896,10 +1963,10 @@
         <v>9</v>
       </c>
       <c r="AX8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ8" t="n">
         <v>14</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-20-2014-15</t>
+          <t>2015-02-20</t>
         </is>
       </c>
     </row>
@@ -1940,49 +2007,49 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" t="n">
         <v>20</v>
       </c>
       <c r="F9" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" t="n">
-        <v>0.37</v>
+        <v>0.377</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="J9" t="n">
-        <v>86.2</v>
+        <v>86.3</v>
       </c>
       <c r="K9" t="n">
-        <v>0.433</v>
+        <v>0.434</v>
       </c>
       <c r="L9" t="n">
         <v>7.4</v>
       </c>
       <c r="M9" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="N9" t="n">
-        <v>0.315</v>
+        <v>0.316</v>
       </c>
       <c r="O9" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="P9" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.739</v>
+        <v>0.74</v>
       </c>
       <c r="R9" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S9" t="n">
         <v>32.9</v>
@@ -1997,55 +2064,55 @@
         <v>14.1</v>
       </c>
       <c r="W9" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X9" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y9" t="n">
         <v>5.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="AA9" t="n">
         <v>20.9</v>
       </c>
       <c r="AB9" t="n">
-        <v>100.3</v>
+        <v>100.7</v>
       </c>
       <c r="AC9" t="n">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
         <v>22</v>
       </c>
       <c r="AF9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG9" t="n">
         <v>23</v>
       </c>
       <c r="AH9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI9" t="n">
         <v>16</v>
       </c>
-      <c r="AI9" t="n">
-        <v>18</v>
-      </c>
       <c r="AJ9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AK9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
         <v>15</v>
       </c>
       <c r="AM9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN9" t="n">
         <v>28</v>
@@ -2054,13 +2121,13 @@
         <v>7</v>
       </c>
       <c r="AP9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ9" t="n">
         <v>23</v>
       </c>
       <c r="AR9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS9" t="n">
         <v>10</v>
@@ -2072,13 +2139,13 @@
         <v>15</v>
       </c>
       <c r="AV9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW9" t="n">
         <v>22</v>
       </c>
       <c r="AX9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY9" t="n">
         <v>27</v>
@@ -2087,13 +2154,13 @@
         <v>30</v>
       </c>
       <c r="BA9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-20-2014-15</t>
+          <t>2015-02-20</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" t="n">
         <v>33</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4</v>
+        <v>0.389</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
@@ -2143,7 +2210,7 @@
         <v>85.40000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.429</v>
+        <v>0.428</v>
       </c>
       <c r="L10" t="n">
         <v>8.6</v>
@@ -2152,16 +2219,16 @@
         <v>25.1</v>
       </c>
       <c r="N10" t="n">
-        <v>0.343</v>
+        <v>0.344</v>
       </c>
       <c r="O10" t="n">
         <v>16.4</v>
       </c>
       <c r="P10" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.708</v>
+        <v>0.712</v>
       </c>
       <c r="R10" t="n">
         <v>12.8</v>
@@ -2173,43 +2240,43 @@
         <v>45.2</v>
       </c>
       <c r="U10" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V10" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W10" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X10" t="n">
         <v>4.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z10" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AA10" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AB10" t="n">
         <v>98.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.3</v>
+        <v>-1.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="n">
         <v>21</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH10" t="n">
         <v>20</v>
@@ -2230,7 +2297,7 @@
         <v>10</v>
       </c>
       <c r="AN10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO10" t="n">
         <v>22</v>
@@ -2251,7 +2318,7 @@
         <v>4</v>
       </c>
       <c r="AU10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV10" t="n">
         <v>8</v>
@@ -2260,7 +2327,7 @@
         <v>13</v>
       </c>
       <c r="AX10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY10" t="n">
         <v>18</v>
@@ -2269,13 +2336,13 @@
         <v>7</v>
       </c>
       <c r="BA10" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BB10" t="n">
         <v>21</v>
       </c>
       <c r="BC10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-20-2014-15</t>
+          <t>2015-02-20</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" t="n">
         <v>9</v>
       </c>
       <c r="G11" t="n">
-        <v>0.827</v>
+        <v>0.824</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
@@ -2322,43 +2389,43 @@
         <v>41.8</v>
       </c>
       <c r="J11" t="n">
-        <v>86.90000000000001</v>
+        <v>87</v>
       </c>
       <c r="K11" t="n">
         <v>0.481</v>
       </c>
       <c r="L11" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="M11" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="N11" t="n">
-        <v>0.387</v>
+        <v>0.384</v>
       </c>
       <c r="O11" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P11" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.771</v>
+        <v>0.774</v>
       </c>
       <c r="R11" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S11" t="n">
         <v>34.7</v>
       </c>
       <c r="T11" t="n">
-        <v>45</v>
+        <v>45.1</v>
       </c>
       <c r="U11" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="V11" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W11" t="n">
         <v>9.4</v>
@@ -2367,7 +2434,7 @@
         <v>6.1</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z11" t="n">
         <v>19.8</v>
@@ -2382,10 +2449,10 @@
         <v>10.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF11" t="n">
         <v>1</v>
@@ -2412,22 +2479,22 @@
         <v>3</v>
       </c>
       <c r="AN11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP11" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AR11" t="n">
         <v>22</v>
       </c>
       <c r="AS11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT11" t="n">
         <v>5</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-20-2014-15</t>
+          <t>2015-02-20</t>
         </is>
       </c>
     </row>
@@ -2489,22 +2556,22 @@
         <v>53</v>
       </c>
       <c r="E12" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G12" t="n">
-        <v>0.66</v>
+        <v>0.679</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J12" t="n">
-        <v>84</v>
+        <v>83.8</v>
       </c>
       <c r="K12" t="n">
         <v>0.439</v>
@@ -2513,16 +2580,16 @@
         <v>11.8</v>
       </c>
       <c r="M12" t="n">
-        <v>33.8</v>
+        <v>33.6</v>
       </c>
       <c r="N12" t="n">
-        <v>0.349</v>
+        <v>0.351</v>
       </c>
       <c r="O12" t="n">
-        <v>17.4</v>
+        <v>17.7</v>
       </c>
       <c r="P12" t="n">
-        <v>24.2</v>
+        <v>24.7</v>
       </c>
       <c r="Q12" t="n">
         <v>0.718</v>
@@ -2537,43 +2604,43 @@
         <v>43.4</v>
       </c>
       <c r="U12" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V12" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="W12" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="X12" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y12" t="n">
         <v>5.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AE12" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AF12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AH12" t="n">
         <v>15</v>
@@ -2582,7 +2649,7 @@
         <v>20</v>
       </c>
       <c r="AJ12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK12" t="n">
         <v>22</v>
@@ -2594,28 +2661,28 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
       </c>
       <c r="AR12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT12" t="n">
         <v>15</v>
       </c>
       <c r="AU12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
@@ -2624,7 +2691,7 @@
         <v>2</v>
       </c>
       <c r="AX12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY12" t="n">
         <v>26</v>
@@ -2633,13 +2700,13 @@
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-20-2014-15</t>
+          <t>2015-02-20</t>
         </is>
       </c>
     </row>
@@ -2668,28 +2735,28 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" t="n">
         <v>33</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4</v>
+        <v>0.389</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J13" t="n">
         <v>83.40000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L13" t="n">
         <v>6.9</v>
@@ -2701,13 +2768,13 @@
         <v>0.333</v>
       </c>
       <c r="O13" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="P13" t="n">
         <v>21.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.765</v>
+        <v>0.764</v>
       </c>
       <c r="R13" t="n">
         <v>10.6</v>
@@ -2725,13 +2792,13 @@
         <v>14.4</v>
       </c>
       <c r="W13" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X13" t="n">
         <v>4.4</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z13" t="n">
         <v>20.8</v>
@@ -2740,25 +2807,25 @@
         <v>20.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>96</v>
+        <v>95.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>-1.2</v>
+        <v>-1.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF13" t="n">
         <v>21</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
         <v>24</v>
@@ -2767,7 +2834,7 @@
         <v>15</v>
       </c>
       <c r="AK13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL13" t="n">
         <v>21</v>
@@ -2782,22 +2849,22 @@
         <v>23</v>
       </c>
       <c r="AP13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS13" t="n">
         <v>4</v>
       </c>
       <c r="AT13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV13" t="n">
         <v>17</v>
@@ -2815,7 +2882,7 @@
         <v>16</v>
       </c>
       <c r="BA13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB13" t="n">
         <v>23</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-20-2014-15</t>
+          <t>2015-02-20</t>
         </is>
       </c>
     </row>
@@ -2928,16 +2995,16 @@
         <v>6</v>
       </c>
       <c r="AD14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE14" t="n">
         <v>4</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>6</v>
       </c>
       <c r="AF14" t="n">
         <v>7</v>
       </c>
       <c r="AG14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH14" t="n">
         <v>27</v>
@@ -2958,7 +3025,7 @@
         <v>6</v>
       </c>
       <c r="AN14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO14" t="n">
         <v>5</v>
@@ -2994,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-20-2014-15</t>
+          <t>2015-02-20</t>
         </is>
       </c>
     </row>
@@ -3047,46 +3114,46 @@
         <v>48.7</v>
       </c>
       <c r="I15" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="J15" t="n">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="K15" t="n">
-        <v>0.433</v>
+        <v>0.431</v>
       </c>
       <c r="L15" t="n">
         <v>6.8</v>
       </c>
       <c r="M15" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="N15" t="n">
-        <v>0.346</v>
+        <v>0.349</v>
       </c>
       <c r="O15" t="n">
-        <v>17.8</v>
+        <v>18</v>
       </c>
       <c r="P15" t="n">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.743</v>
+        <v>0.746</v>
       </c>
       <c r="R15" t="n">
         <v>11.9</v>
       </c>
       <c r="S15" t="n">
-        <v>31.9</v>
+        <v>31.7</v>
       </c>
       <c r="T15" t="n">
-        <v>43.8</v>
+        <v>43.6</v>
       </c>
       <c r="U15" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V15" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="W15" t="n">
         <v>7.2</v>
@@ -3095,22 +3162,22 @@
         <v>4.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.9</v>
+        <v>21.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.9</v>
+        <v>-7.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3125,13 +3192,13 @@
         <v>4</v>
       </c>
       <c r="AI15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL15" t="n">
         <v>23</v>
@@ -3140,7 +3207,7 @@
         <v>22</v>
       </c>
       <c r="AN15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO15" t="n">
         <v>10</v>
@@ -3149,16 +3216,16 @@
         <v>10</v>
       </c>
       <c r="AQ15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS15" t="n">
         <v>20</v>
       </c>
-      <c r="AR15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>17</v>
-      </c>
       <c r="AT15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AU15" t="n">
         <v>22</v>
@@ -3167,22 +3234,22 @@
         <v>6</v>
       </c>
       <c r="AW15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX15" t="n">
         <v>20</v>
       </c>
       <c r="AY15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ15" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BA15" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BB15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-20-2014-15</t>
+          <t>2015-02-20</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>4.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3307,13 +3374,13 @@
         <v>1</v>
       </c>
       <c r="AI16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK16" t="n">
         <v>8</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>7</v>
       </c>
       <c r="AL16" t="n">
         <v>28</v>
@@ -3334,7 +3401,7 @@
         <v>5</v>
       </c>
       <c r="AR16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS16" t="n">
         <v>13</v>
@@ -3364,7 +3431,7 @@
         <v>9</v>
       </c>
       <c r="BB16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC16" t="n">
         <v>7</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-20-2014-15</t>
+          <t>2015-02-20</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17" t="n">
         <v>30</v>
       </c>
       <c r="G17" t="n">
-        <v>0.434</v>
+        <v>0.423</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
@@ -3414,7 +3481,7 @@
         <v>34.3</v>
       </c>
       <c r="J17" t="n">
-        <v>75.40000000000001</v>
+        <v>75.3</v>
       </c>
       <c r="K17" t="n">
         <v>0.455</v>
@@ -3426,13 +3493,13 @@
         <v>20.3</v>
       </c>
       <c r="N17" t="n">
-        <v>0.347</v>
+        <v>0.345</v>
       </c>
       <c r="O17" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="P17" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="Q17" t="n">
         <v>0.742</v>
@@ -3441,16 +3508,16 @@
         <v>8.699999999999999</v>
       </c>
       <c r="S17" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T17" t="n">
-        <v>38.1</v>
+        <v>37.8</v>
       </c>
       <c r="U17" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="V17" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W17" t="n">
         <v>8</v>
@@ -3459,22 +3526,22 @@
         <v>4.2</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z17" t="n">
         <v>19.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>93.09999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>-3.3</v>
+        <v>-3.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3495,7 +3562,7 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL17" t="n">
         <v>20</v>
@@ -3504,13 +3571,13 @@
         <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ17" t="n">
         <v>22</v>
@@ -3525,7 +3592,7 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AV17" t="n">
         <v>19</v>
@@ -3537,19 +3604,19 @@
         <v>24</v>
       </c>
       <c r="AY17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BB17" t="n">
         <v>28</v>
       </c>
       <c r="BC17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-20-2014-15</t>
+          <t>2015-02-20</t>
         </is>
       </c>
     </row>
@@ -3578,31 +3645,31 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" t="n">
         <v>23</v>
       </c>
       <c r="G18" t="n">
-        <v>0.574</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="H18" t="n">
         <v>48.6</v>
       </c>
       <c r="I18" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="J18" t="n">
-        <v>81.40000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="K18" t="n">
-        <v>0.465</v>
+        <v>0.466</v>
       </c>
       <c r="L18" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M18" t="n">
         <v>18.9</v>
@@ -3617,31 +3684,31 @@
         <v>20.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.774</v>
+        <v>0.773</v>
       </c>
       <c r="R18" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="S18" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="T18" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U18" t="n">
         <v>23.7</v>
       </c>
       <c r="V18" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="W18" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="X18" t="n">
         <v>4.8</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z18" t="n">
         <v>22.3</v>
@@ -3650,13 +3717,13 @@
         <v>19.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>99</v>
+        <v>99.2</v>
       </c>
       <c r="AC18" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AD18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
         <v>13</v>
@@ -3671,7 +3738,7 @@
         <v>8</v>
       </c>
       <c r="AI18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ18" t="n">
         <v>24</v>
@@ -3695,13 +3762,13 @@
         <v>26</v>
       </c>
       <c r="AQ18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AR18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT18" t="n">
         <v>25</v>
@@ -3716,10 +3783,10 @@
         <v>3</v>
       </c>
       <c r="AX18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ18" t="n">
         <v>27</v>
@@ -3728,10 +3795,10 @@
         <v>21</v>
       </c>
       <c r="BB18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-20-2014-15</t>
+          <t>2015-02-20</t>
         </is>
       </c>
     </row>
@@ -3760,55 +3827,55 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" t="n">
         <v>42</v>
       </c>
       <c r="G19" t="n">
-        <v>0.222</v>
+        <v>0.208</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J19" t="n">
-        <v>84.40000000000001</v>
+        <v>84.3</v>
       </c>
       <c r="K19" t="n">
         <v>0.437</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M19" t="n">
         <v>14.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.337</v>
+        <v>0.339</v>
       </c>
       <c r="O19" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="P19" t="n">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.757</v>
+        <v>0.758</v>
       </c>
       <c r="R19" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S19" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="T19" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="U19" t="n">
         <v>22.1</v>
@@ -3823,37 +3890,37 @@
         <v>4</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB19" t="n">
-        <v>97.8</v>
+        <v>97.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>-8.4</v>
+        <v>-8.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ19" t="n">
         <v>11</v>
@@ -3874,16 +3941,16 @@
         <v>4</v>
       </c>
       <c r="AP19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ19" t="n">
         <v>15</v>
       </c>
       <c r="AR19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT19" t="n">
         <v>26</v>
@@ -3901,13 +3968,13 @@
         <v>27</v>
       </c>
       <c r="AY19" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AZ19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB19" t="n">
         <v>22</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-20-2014-15</t>
+          <t>2015-02-20</t>
         </is>
       </c>
     </row>
@@ -3945,22 +4012,22 @@
         <v>53</v>
       </c>
       <c r="E20" t="n">
+        <v>27</v>
+      </c>
+      <c r="F20" t="n">
         <v>26</v>
       </c>
-      <c r="F20" t="n">
-        <v>27</v>
-      </c>
       <c r="G20" t="n">
-        <v>0.491</v>
+        <v>0.509</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>37.8</v>
+        <v>38</v>
       </c>
       <c r="J20" t="n">
-        <v>83.3</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K20" t="n">
         <v>0.453</v>
@@ -3972,25 +4039,25 @@
         <v>19.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.355</v>
+        <v>0.354</v>
       </c>
       <c r="O20" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P20" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.769</v>
+        <v>0.762</v>
       </c>
       <c r="R20" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="S20" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T20" t="n">
-        <v>43.6</v>
+        <v>44</v>
       </c>
       <c r="U20" t="n">
         <v>21.4</v>
@@ -3999,28 +4066,28 @@
         <v>13.1</v>
       </c>
       <c r="W20" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X20" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>-0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
         <v>16</v>
@@ -4035,10 +4102,10 @@
         <v>22</v>
       </c>
       <c r="AI20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>13</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>16</v>
       </c>
       <c r="AK20" t="n">
         <v>14</v>
@@ -4059,34 +4126,34 @@
         <v>18</v>
       </c>
       <c r="AQ20" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AR20" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AS20" t="n">
         <v>19</v>
       </c>
       <c r="AT20" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AU20" t="n">
         <v>17</v>
       </c>
       <c r="AV20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW20" t="n">
         <v>26</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-20-2014-15</t>
+          <t>2015-02-20</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G21" t="n">
-        <v>0.185</v>
+        <v>0.189</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
@@ -4163,22 +4230,22 @@
         <v>17.7</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.768</v>
+        <v>0.769</v>
       </c>
       <c r="R21" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S21" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="T21" t="n">
-        <v>39.7</v>
+        <v>39.8</v>
       </c>
       <c r="U21" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="V21" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W21" t="n">
         <v>7.2</v>
@@ -4190,19 +4257,19 @@
         <v>4.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AA21" t="n">
         <v>18.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>92.40000000000001</v>
+        <v>92.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>-8</v>
+        <v>-7.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4223,10 +4290,10 @@
         <v>22</v>
       </c>
       <c r="AK21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM21" t="n">
         <v>20</v>
@@ -4241,22 +4308,22 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AR21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT21" t="n">
         <v>29</v>
       </c>
       <c r="AU21" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AV21" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AW21" t="n">
         <v>20</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-20-2014-15</t>
+          <t>2015-02-20</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>2.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE22" t="n">
         <v>14</v>
@@ -4396,7 +4463,7 @@
         <v>14</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI22" t="n">
         <v>14</v>
@@ -4405,7 +4472,7 @@
         <v>9</v>
       </c>
       <c r="AK22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL22" t="n">
         <v>16</v>
@@ -4414,7 +4481,7 @@
         <v>15</v>
       </c>
       <c r="AN22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO22" t="n">
         <v>9</v>
@@ -4423,13 +4490,13 @@
         <v>11</v>
       </c>
       <c r="AQ22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT22" t="n">
         <v>1</v>
@@ -4438,13 +4505,13 @@
         <v>26</v>
       </c>
       <c r="AV22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY22" t="n">
         <v>9</v>
@@ -4453,13 +4520,13 @@
         <v>28</v>
       </c>
       <c r="BA22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB22" t="n">
         <v>13</v>
       </c>
       <c r="BC22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-20-2014-15</t>
+          <t>2015-02-20</t>
         </is>
       </c>
     </row>
@@ -4491,79 +4558,79 @@
         <v>56</v>
       </c>
       <c r="E23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G23" t="n">
-        <v>0.321</v>
+        <v>0.304</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="J23" t="n">
-        <v>81.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.458</v>
+        <v>0.456</v>
       </c>
       <c r="L23" t="n">
         <v>6.9</v>
       </c>
       <c r="M23" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N23" t="n">
-        <v>0.355</v>
+        <v>0.358</v>
       </c>
       <c r="O23" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="P23" t="n">
-        <v>19.2</v>
+        <v>19.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.734</v>
+        <v>0.735</v>
       </c>
       <c r="R23" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="S23" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T23" t="n">
-        <v>40.6</v>
+        <v>40.8</v>
       </c>
       <c r="U23" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V23" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="W23" t="n">
         <v>7.5</v>
       </c>
       <c r="X23" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="Z23" t="n">
         <v>21.2</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.90000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.5</v>
+        <v>-6</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4581,13 +4648,13 @@
         <v>26</v>
       </c>
       <c r="AI23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ23" t="n">
         <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AL23" t="n">
         <v>22</v>
@@ -4596,7 +4663,7 @@
         <v>23</v>
       </c>
       <c r="AN23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO23" t="n">
         <v>29</v>
@@ -4611,7 +4678,7 @@
         <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AT23" t="n">
         <v>28</v>
@@ -4620,25 +4687,25 @@
         <v>24</v>
       </c>
       <c r="AV23" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AW23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX23" t="n">
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AZ23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA23" t="n">
         <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-20-2014-15</t>
+          <t>2015-02-20</t>
         </is>
       </c>
     </row>
@@ -4670,25 +4737,25 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E24" t="n">
         <v>12</v>
       </c>
       <c r="F24" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G24" t="n">
-        <v>0.222</v>
+        <v>0.226</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="J24" t="n">
-        <v>80.40000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="K24" t="n">
         <v>0.41</v>
@@ -4706,7 +4773,7 @@
         <v>16.5</v>
       </c>
       <c r="P24" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="Q24" t="n">
         <v>0.6830000000000001</v>
@@ -4715,10 +4782,10 @@
         <v>11.4</v>
       </c>
       <c r="S24" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="T24" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U24" t="n">
         <v>20.3</v>
@@ -4730,10 +4797,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="X24" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z24" t="n">
         <v>21.2</v>
@@ -4742,13 +4809,13 @@
         <v>20.4</v>
       </c>
       <c r="AB24" t="n">
-        <v>89.90000000000001</v>
+        <v>89.8</v>
       </c>
       <c r="AC24" t="n">
         <v>-10.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4760,7 +4827,7 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
@@ -4781,25 +4848,25 @@
         <v>29</v>
       </c>
       <c r="AO24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT24" t="n">
         <v>21</v>
       </c>
       <c r="AU24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4811,13 +4878,13 @@
         <v>3</v>
       </c>
       <c r="AY24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-20-2014-15</t>
+          <t>2015-02-20</t>
         </is>
       </c>
     </row>
@@ -4852,19 +4919,19 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" t="n">
         <v>29</v>
       </c>
       <c r="F25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G25" t="n">
-        <v>0.527</v>
+        <v>0.537</v>
       </c>
       <c r="H25" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I25" t="n">
         <v>39.8</v>
@@ -4873,37 +4940,37 @@
         <v>86.40000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.46</v>
+        <v>0.461</v>
       </c>
       <c r="L25" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="M25" t="n">
-        <v>26.5</v>
+        <v>26.7</v>
       </c>
       <c r="N25" t="n">
-        <v>0.36</v>
+        <v>0.359</v>
       </c>
       <c r="O25" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P25" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.783</v>
+        <v>0.785</v>
       </c>
       <c r="R25" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S25" t="n">
         <v>31.8</v>
       </c>
       <c r="T25" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="U25" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V25" t="n">
         <v>14.9</v>
@@ -4915,31 +4982,31 @@
         <v>4.9</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z25" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>106</v>
+        <v>105.9</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
       </c>
       <c r="AF25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH25" t="n">
         <v>11</v>
@@ -4951,7 +5018,7 @@
         <v>3</v>
       </c>
       <c r="AK25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL25" t="n">
         <v>7</v>
@@ -4960,37 +5027,37 @@
         <v>5</v>
       </c>
       <c r="AN25" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO25" t="n">
         <v>16</v>
       </c>
       <c r="AP25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS25" t="n">
         <v>18</v>
       </c>
       <c r="AT25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AV25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW25" t="n">
         <v>5</v>
       </c>
       <c r="AX25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY25" t="n">
         <v>5</v>
@@ -4999,7 +5066,7 @@
         <v>26</v>
       </c>
       <c r="BA25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BB25" t="n">
         <v>4</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-20-2014-15</t>
+          <t>2015-02-20</t>
         </is>
       </c>
     </row>
@@ -5034,37 +5101,37 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" t="n">
         <v>36</v>
       </c>
       <c r="F26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G26" t="n">
-        <v>0.667</v>
+        <v>0.679</v>
       </c>
       <c r="H26" t="n">
         <v>48.6</v>
       </c>
       <c r="I26" t="n">
-        <v>38.1</v>
+        <v>38.3</v>
       </c>
       <c r="J26" t="n">
-        <v>86</v>
+        <v>86.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L26" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="M26" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="N26" t="n">
-        <v>0.359</v>
+        <v>0.362</v>
       </c>
       <c r="O26" t="n">
         <v>15.9</v>
@@ -5073,19 +5140,19 @@
         <v>20</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.797</v>
+        <v>0.795</v>
       </c>
       <c r="R26" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S26" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="T26" t="n">
-        <v>45.8</v>
+        <v>46</v>
       </c>
       <c r="U26" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="V26" t="n">
         <v>13.8</v>
@@ -5100,28 +5167,28 @@
         <v>3.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA26" t="n">
         <v>19.4</v>
       </c>
       <c r="AB26" t="n">
-        <v>102.1</v>
+        <v>102.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AF26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH26" t="n">
         <v>8</v>
@@ -5130,10 +5197,10 @@
         <v>9</v>
       </c>
       <c r="AJ26" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AK26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL26" t="n">
         <v>3</v>
@@ -5142,7 +5209,7 @@
         <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
         <v>27</v>
@@ -5154,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AS26" t="n">
         <v>1</v>
@@ -5169,13 +5236,13 @@
         <v>9</v>
       </c>
       <c r="AW26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX26" t="n">
         <v>9</v>
       </c>
       <c r="AY26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ26" t="n">
         <v>6</v>
@@ -5184,10 +5251,10 @@
         <v>24</v>
       </c>
       <c r="BB26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-20-2014-15</t>
+          <t>2015-02-20</t>
         </is>
       </c>
     </row>
@@ -5216,22 +5283,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F27" t="n">
         <v>34</v>
       </c>
       <c r="G27" t="n">
-        <v>0.358</v>
+        <v>0.346</v>
       </c>
       <c r="H27" t="n">
         <v>48.6</v>
       </c>
       <c r="I27" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J27" t="n">
         <v>80.09999999999999</v>
@@ -5240,37 +5307,37 @@
         <v>0.451</v>
       </c>
       <c r="L27" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="M27" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="N27" t="n">
-        <v>0.325</v>
+        <v>0.324</v>
       </c>
       <c r="O27" t="n">
         <v>22.7</v>
       </c>
       <c r="P27" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="Q27" t="n">
         <v>0.773</v>
       </c>
       <c r="R27" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="S27" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="T27" t="n">
-        <v>44.8</v>
+        <v>44.6</v>
       </c>
       <c r="U27" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="V27" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="W27" t="n">
         <v>6.3</v>
@@ -5285,22 +5352,22 @@
         <v>21.4</v>
       </c>
       <c r="AA27" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="AC27" t="n">
-        <v>-4</v>
+        <v>-4.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
       </c>
       <c r="AF27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG27" t="n">
         <v>25</v>
@@ -5324,7 +5391,7 @@
         <v>28</v>
       </c>
       <c r="AN27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5333,16 +5400,16 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT27" t="n">
         <v>8</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>5</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>7</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
@@ -5354,10 +5421,10 @@
         <v>28</v>
       </c>
       <c r="AX27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ27" t="n">
         <v>24</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-20-2014-15</t>
+          <t>2015-02-20</t>
         </is>
       </c>
     </row>
@@ -5401,13 +5468,13 @@
         <v>54</v>
       </c>
       <c r="E28" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G28" t="n">
-        <v>0.611</v>
+        <v>0.63</v>
       </c>
       <c r="H28" t="n">
         <v>48.8</v>
@@ -5416,43 +5483,43 @@
         <v>38</v>
       </c>
       <c r="J28" t="n">
-        <v>83.59999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K28" t="n">
         <v>0.455</v>
       </c>
       <c r="L28" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="M28" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="N28" t="n">
-        <v>0.36</v>
+        <v>0.364</v>
       </c>
       <c r="O28" t="n">
         <v>16.6</v>
       </c>
       <c r="P28" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.768</v>
+        <v>0.769</v>
       </c>
       <c r="R28" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S28" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="T28" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U28" t="n">
         <v>24.5</v>
       </c>
       <c r="V28" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W28" t="n">
         <v>7.6</v>
@@ -5467,37 +5534,37 @@
         <v>19.3</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB28" t="n">
         <v>100.9</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AE28" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG28" t="n">
         <v>9</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>10</v>
       </c>
       <c r="AH28" t="n">
         <v>2</v>
       </c>
       <c r="AI28" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AJ28" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AK28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
@@ -5509,7 +5576,7 @@
         <v>6</v>
       </c>
       <c r="AO28" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AP28" t="n">
         <v>22</v>
@@ -5518,19 +5585,19 @@
         <v>11</v>
       </c>
       <c r="AR28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS28" t="n">
         <v>7</v>
       </c>
       <c r="AT28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AU28" t="n">
         <v>4</v>
       </c>
       <c r="AV28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW28" t="n">
         <v>14</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-20-2014-15</t>
+          <t>2015-02-20</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E29" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F29" t="n">
         <v>17</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.679</v>
       </c>
       <c r="H29" t="n">
         <v>48.6</v>
@@ -5598,67 +5665,67 @@
         <v>38.4</v>
       </c>
       <c r="J29" t="n">
-        <v>84.2</v>
+        <v>84</v>
       </c>
       <c r="K29" t="n">
         <v>0.457</v>
       </c>
       <c r="L29" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="M29" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="O29" t="n">
+        <v>20</v>
+      </c>
+      <c r="P29" t="n">
         <v>25.5</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0.352</v>
-      </c>
-      <c r="O29" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="P29" t="n">
-        <v>25.2</v>
       </c>
       <c r="Q29" t="n">
         <v>0.783</v>
       </c>
       <c r="R29" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S29" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="T29" t="n">
-        <v>42.1</v>
+        <v>41.9</v>
       </c>
       <c r="U29" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V29" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="W29" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X29" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y29" t="n">
         <v>5.1</v>
       </c>
       <c r="Z29" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA29" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AB29" t="n">
         <v>105.6</v>
       </c>
       <c r="AC29" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE29" t="n">
         <v>4</v>
@@ -5679,16 +5746,16 @@
         <v>12</v>
       </c>
       <c r="AK29" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AL29" t="n">
         <v>9</v>
       </c>
       <c r="AM29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO29" t="n">
         <v>3</v>
@@ -5703,7 +5770,7 @@
         <v>12</v>
       </c>
       <c r="AS29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT29" t="n">
         <v>22</v>
@@ -5715,7 +5782,7 @@
         <v>4</v>
       </c>
       <c r="AW29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX29" t="n">
         <v>18</v>
@@ -5727,13 +5794,13 @@
         <v>23</v>
       </c>
       <c r="BA29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB29" t="n">
         <v>5</v>
       </c>
       <c r="BC29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-20-2014-15</t>
+          <t>2015-02-20</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F30" t="n">
         <v>34</v>
       </c>
       <c r="G30" t="n">
-        <v>0.37</v>
+        <v>0.358</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
@@ -5780,7 +5847,7 @@
         <v>35.9</v>
       </c>
       <c r="J30" t="n">
-        <v>79.8</v>
+        <v>79.7</v>
       </c>
       <c r="K30" t="n">
         <v>0.45</v>
@@ -5789,40 +5856,40 @@
         <v>7.3</v>
       </c>
       <c r="M30" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="N30" t="n">
-        <v>0.344</v>
+        <v>0.343</v>
       </c>
       <c r="O30" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="P30" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.731</v>
+        <v>0.735</v>
       </c>
       <c r="R30" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S30" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="T30" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U30" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V30" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W30" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X30" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y30" t="n">
         <v>4.9</v>
@@ -5831,25 +5898,25 @@
         <v>19</v>
       </c>
       <c r="AA30" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AB30" t="n">
         <v>95.7</v>
       </c>
       <c r="AC30" t="n">
-        <v>-2.1</v>
+        <v>-2.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE30" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AF30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH30" t="n">
         <v>29</v>
@@ -5864,16 +5931,16 @@
         <v>16</v>
       </c>
       <c r="AL30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM30" t="n">
         <v>17</v>
       </c>
       <c r="AN30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP30" t="n">
         <v>16</v>
@@ -5891,16 +5958,16 @@
         <v>17</v>
       </c>
       <c r="AU30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW30" t="n">
         <v>23</v>
       </c>
       <c r="AX30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY30" t="n">
         <v>17</v>
@@ -5912,7 +5979,7 @@
         <v>25</v>
       </c>
       <c r="BB30" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BC30" t="n">
         <v>20</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-20-2014-15</t>
+          <t>2015-02-20</t>
         </is>
       </c>
     </row>
@@ -5944,43 +6011,43 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E31" t="n">
         <v>33</v>
       </c>
       <c r="F31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6</v>
+        <v>0.611</v>
       </c>
       <c r="H31" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I31" t="n">
         <v>38.7</v>
       </c>
       <c r="J31" t="n">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="K31" t="n">
-        <v>0.47</v>
+        <v>0.471</v>
       </c>
       <c r="L31" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M31" t="n">
         <v>16.2</v>
       </c>
       <c r="N31" t="n">
-        <v>0.369</v>
+        <v>0.374</v>
       </c>
       <c r="O31" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="P31" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q31" t="n">
         <v>0.743</v>
@@ -5989,10 +6056,10 @@
         <v>10.5</v>
       </c>
       <c r="S31" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="T31" t="n">
-        <v>44</v>
+        <v>44.1</v>
       </c>
       <c r="U31" t="n">
         <v>24.4</v>
@@ -6016,13 +6083,13 @@
         <v>20.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="AC31" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE31" t="n">
         <v>11</v>
@@ -6031,7 +6098,7 @@
         <v>11</v>
       </c>
       <c r="AG31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH31" t="n">
         <v>11</v>
@@ -6043,7 +6110,7 @@
         <v>20</v>
       </c>
       <c r="AK31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL31" t="n">
         <v>26</v>
@@ -6052,7 +6119,7 @@
         <v>27</v>
       </c>
       <c r="AN31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO31" t="n">
         <v>25</v>
@@ -6061,7 +6128,7 @@
         <v>21</v>
       </c>
       <c r="AQ31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR31" t="n">
         <v>21</v>
@@ -6076,7 +6143,7 @@
         <v>6</v>
       </c>
       <c r="AV31" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AW31" t="n">
         <v>17</v>
@@ -6085,19 +6152,19 @@
         <v>14</v>
       </c>
       <c r="AY31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB31" t="n">
         <v>18</v>
       </c>
       <c r="BC31" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-20-2014-15</t>
+          <t>2015-02-20</t>
         </is>
       </c>
     </row>
